--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N2">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O2">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P2">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q2">
-        <v>50.78868162330638</v>
+        <v>93.14904490157066</v>
       </c>
       <c r="R2">
-        <v>50.78868162330638</v>
+        <v>838.341404114136</v>
       </c>
       <c r="S2">
-        <v>0.00502517818409379</v>
+        <v>0.00659483765138934</v>
       </c>
       <c r="T2">
-        <v>0.00502517818409379</v>
+        <v>0.008704403343170939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P3">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q3">
-        <v>623.3096951846117</v>
+        <v>659.0656599810746</v>
       </c>
       <c r="R3">
-        <v>623.3096951846117</v>
+        <v>5931.590939829672</v>
       </c>
       <c r="S3">
-        <v>0.06167205334068974</v>
+        <v>0.04666103698404821</v>
       </c>
       <c r="T3">
-        <v>0.06167205334068974</v>
+        <v>0.06158703334178464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N4">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O4">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P4">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q4">
-        <v>133.9275827065735</v>
+        <v>137.2189983640667</v>
       </c>
       <c r="R4">
-        <v>133.9275827065735</v>
+        <v>1234.9709852766</v>
       </c>
       <c r="S4">
-        <v>0.01325118009278376</v>
+        <v>0.00971493607748221</v>
       </c>
       <c r="T4">
-        <v>0.01325118009278376</v>
+        <v>0.01282256312309875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H5">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I5">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J5">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N5">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O5">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P5">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q5">
-        <v>116.8262148720027</v>
+        <v>144.1897489242427</v>
       </c>
       <c r="R5">
-        <v>116.8262148720027</v>
+        <v>1297.707740318184</v>
       </c>
       <c r="S5">
-        <v>0.01155912159050098</v>
+        <v>0.01020845663157129</v>
       </c>
       <c r="T5">
-        <v>0.01155912159050098</v>
+        <v>0.01347395170732441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H6">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I6">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J6">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N6">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O6">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P6">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q6">
-        <v>1280.433369268231</v>
+        <v>1955.182631593932</v>
       </c>
       <c r="R6">
-        <v>1280.433369268231</v>
+        <v>11731.09578956359</v>
       </c>
       <c r="S6">
-        <v>0.12668975897338</v>
+        <v>0.1384245222031336</v>
       </c>
       <c r="T6">
-        <v>0.12668975897338</v>
+        <v>0.121802631849773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N7">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O7">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P7">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q7">
-        <v>59.07272939841459</v>
+        <v>117.9585041572181</v>
       </c>
       <c r="R7">
-        <v>59.07272939841459</v>
+        <v>1061.626537414963</v>
       </c>
       <c r="S7">
-        <v>0.005844825688713429</v>
+        <v>0.008351316809953366</v>
       </c>
       <c r="T7">
-        <v>0.005844825688713429</v>
+        <v>0.01102274745840383</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P8">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q8">
-        <v>724.9765849041503</v>
+        <v>834.6022170695002</v>
       </c>
       <c r="R8">
-        <v>724.9765849041503</v>
+        <v>7511.419953625501</v>
       </c>
       <c r="S8">
-        <v>0.07173126771550925</v>
+        <v>0.05908880902513849</v>
       </c>
       <c r="T8">
-        <v>0.07173126771550925</v>
+        <v>0.07799021810856095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H9">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J9">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N9">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O9">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P9">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q9">
-        <v>155.7722626251184</v>
+        <v>173.7661165080195</v>
       </c>
       <c r="R9">
-        <v>155.7722626251184</v>
+        <v>1563.895048572175</v>
       </c>
       <c r="S9">
-        <v>0.0154125555303145</v>
+        <v>0.01230242702857247</v>
       </c>
       <c r="T9">
-        <v>0.0154125555303145</v>
+        <v>0.01623774422014209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H10">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J10">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N10">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O10">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P10">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q10">
-        <v>135.8815223628082</v>
+        <v>182.5934674465108</v>
       </c>
       <c r="R10">
-        <v>135.8815223628082</v>
+        <v>1643.341207018597</v>
       </c>
       <c r="S10">
-        <v>0.01344450850021067</v>
+        <v>0.01292739260275205</v>
       </c>
       <c r="T10">
-        <v>0.01344450850021067</v>
+        <v>0.01706262463734378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H11">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J11">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N11">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O11">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P11">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q11">
-        <v>1489.28248416617</v>
+        <v>2475.928967609894</v>
       </c>
       <c r="R11">
-        <v>1489.28248416617</v>
+        <v>14855.57380565936</v>
       </c>
       <c r="S11">
-        <v>0.1473538908706493</v>
+        <v>0.1752927214123689</v>
       </c>
       <c r="T11">
-        <v>0.1473538908706493</v>
+        <v>0.1542437313296519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H12">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I12">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J12">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N12">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O12">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P12">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q12">
-        <v>44.05456453785391</v>
+        <v>80.73540384032212</v>
       </c>
       <c r="R12">
-        <v>44.05456453785391</v>
+        <v>726.618634562899</v>
       </c>
       <c r="S12">
-        <v>0.004358885278167676</v>
+        <v>0.005715967153596676</v>
       </c>
       <c r="T12">
-        <v>0.004358885278167676</v>
+        <v>0.007544398547967355</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H13">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I13">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J13">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P13">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q13">
-        <v>540.6645007493084</v>
+        <v>571.2343295853082</v>
       </c>
       <c r="R13">
-        <v>540.6645007493084</v>
+        <v>5141.108966267773</v>
       </c>
       <c r="S13">
-        <v>0.05349490018722228</v>
+        <v>0.0404426869700713</v>
       </c>
       <c r="T13">
-        <v>0.05349490018722228</v>
+        <v>0.05337954901663758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N14">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O14">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P14">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q14">
-        <v>116.1700037718248</v>
+        <v>118.9323117504195</v>
       </c>
       <c r="R14">
-        <v>116.1700037718248</v>
+        <v>1070.390805753775</v>
       </c>
       <c r="S14">
-        <v>0.0114941941775543</v>
+        <v>0.008420261188155411</v>
       </c>
       <c r="T14">
-        <v>0.0114941941775543</v>
+        <v>0.01111374585864319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H15">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I15">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J15">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N15">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O15">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P15">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q15">
-        <v>101.3361217163403</v>
+        <v>124.9740952398868</v>
       </c>
       <c r="R15">
-        <v>101.3361217163403</v>
+        <v>1124.766857158981</v>
       </c>
       <c r="S15">
-        <v>0.01002648723758061</v>
+        <v>0.008848012017806803</v>
       </c>
       <c r="T15">
-        <v>0.01002648723758061</v>
+        <v>0.01167832620898393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H16">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I16">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J16">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N16">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O16">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P16">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q16">
-        <v>1110.659554450091</v>
+        <v>1694.622414111926</v>
       </c>
       <c r="R16">
-        <v>1110.659554450091</v>
+        <v>10167.73448467155</v>
       </c>
       <c r="S16">
-        <v>0.1098918496127441</v>
+        <v>0.1199771797261357</v>
       </c>
       <c r="T16">
-        <v>0.1098918496127441</v>
+        <v>0.1055704294294883</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H17">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I17">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J17">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N17">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O17">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P17">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q17">
-        <v>56.26980882257185</v>
+        <v>107.3220774574953</v>
       </c>
       <c r="R17">
-        <v>56.26980882257185</v>
+        <v>965.8986971174581</v>
       </c>
       <c r="S17">
-        <v>0.005567496668166281</v>
+        <v>0.007598270900038816</v>
       </c>
       <c r="T17">
-        <v>0.005567496668166281</v>
+        <v>0.01002881619241724</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H18">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I18">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J18">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P18">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q18">
-        <v>690.5774330869569</v>
+        <v>759.3453683267074</v>
       </c>
       <c r="R18">
-        <v>690.5774330869569</v>
+        <v>6834.108314940367</v>
       </c>
       <c r="S18">
-        <v>0.06832771673253264</v>
+        <v>0.053760716824748</v>
       </c>
       <c r="T18">
-        <v>0.06832771673253264</v>
+        <v>0.07095776848456883</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H19">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I19">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J19">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N19">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O19">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P19">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q19">
-        <v>148.3810808648722</v>
+        <v>158.0974661267833</v>
       </c>
       <c r="R19">
-        <v>148.3810808648722</v>
+        <v>1422.87719514105</v>
       </c>
       <c r="S19">
-        <v>0.01468125075631507</v>
+        <v>0.01119310587997861</v>
       </c>
       <c r="T19">
-        <v>0.01468125075631507</v>
+        <v>0.01477357190462854</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N20">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O20">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P20">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q20">
-        <v>129.4341291445464</v>
+        <v>166.1288467206113</v>
       </c>
       <c r="R20">
-        <v>129.4341291445464</v>
+        <v>1495.159620485502</v>
       </c>
       <c r="S20">
-        <v>0.01280658487807405</v>
+        <v>0.0117617177341182</v>
       </c>
       <c r="T20">
-        <v>0.01280658487807405</v>
+        <v>0.01552407209671388</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H21">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I21">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J21">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N21">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O21">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P21">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q21">
-        <v>1418.618058116752</v>
+        <v>2252.672177725521</v>
       </c>
       <c r="R21">
-        <v>1418.618058116752</v>
+        <v>13516.03306635313</v>
       </c>
       <c r="S21">
-        <v>0.1403621493876002</v>
+        <v>0.1594864156642683</v>
       </c>
       <c r="T21">
-        <v>0.1403621493876002</v>
+        <v>0.1403354323570493</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H22">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I22">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J22">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.530568073831718</v>
+        <v>0.9640756666666667</v>
       </c>
       <c r="N22">
-        <v>0.530568073831718</v>
+        <v>2.892227</v>
       </c>
       <c r="O22">
-        <v>0.02303043330122978</v>
+        <v>0.03116597139157128</v>
       </c>
       <c r="P22">
-        <v>0.02303043330122978</v>
+        <v>0.03985704515756099</v>
       </c>
       <c r="Q22">
-        <v>22.57916478629478</v>
+        <v>41.039963612115</v>
       </c>
       <c r="R22">
-        <v>22.57916478629478</v>
+        <v>246.23978167269</v>
       </c>
       <c r="S22">
-        <v>0.002234047482088602</v>
+        <v>0.002905578876593085</v>
       </c>
       <c r="T22">
-        <v>0.002234047482088602</v>
+        <v>0.002556679615601612</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H23">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I23">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J23">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.5114551865622</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N23">
-        <v>6.5114551865622</v>
+        <v>20.463629</v>
       </c>
       <c r="O23">
-        <v>0.2826435320260737</v>
+        <v>0.2205113485150815</v>
       </c>
       <c r="P23">
-        <v>0.2826435320260737</v>
+        <v>0.2820040699227877</v>
       </c>
       <c r="Q23">
-        <v>277.1052894196449</v>
+        <v>290.373677284605</v>
       </c>
       <c r="R23">
-        <v>277.1052894196449</v>
+        <v>1742.24206370763</v>
       </c>
       <c r="S23">
-        <v>0.02741759405011982</v>
+        <v>0.02055809871107547</v>
       </c>
       <c r="T23">
-        <v>0.02741759405011982</v>
+        <v>0.01808950097123566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H24">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I24">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J24">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.3990853339449</v>
+        <v>1.420191666666667</v>
       </c>
       <c r="N24">
-        <v>1.3990853339449</v>
+        <v>4.260575</v>
       </c>
       <c r="O24">
-        <v>0.06073026828290957</v>
+        <v>0.04591097398705006</v>
       </c>
       <c r="P24">
-        <v>0.06073026828290957</v>
+        <v>0.05871390114682402</v>
       </c>
       <c r="Q24">
-        <v>59.54029249647185</v>
+        <v>60.456472803375</v>
       </c>
       <c r="R24">
-        <v>59.54029249647185</v>
+        <v>362.73883682025</v>
       </c>
       <c r="S24">
-        <v>0.005891087725941946</v>
+        <v>0.004280243812861364</v>
       </c>
       <c r="T24">
-        <v>0.005891087725941946</v>
+        <v>0.003766276040311441</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H25">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I25">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J25">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.22043451053561</v>
+        <v>1.492337666666667</v>
       </c>
       <c r="N25">
-        <v>1.22043451053561</v>
+        <v>4.477012999999999</v>
       </c>
       <c r="O25">
-        <v>0.05297555013143179</v>
+        <v>0.04824325997845007</v>
       </c>
       <c r="P25">
-        <v>0.05297555013143179</v>
+        <v>0.06169657821187187</v>
       </c>
       <c r="Q25">
-        <v>51.93752372858511</v>
+        <v>63.527672831685</v>
       </c>
       <c r="R25">
-        <v>51.93752372858511</v>
+        <v>381.1660369901099</v>
       </c>
       <c r="S25">
-        <v>0.005138847925065484</v>
+        <v>0.004497680992201731</v>
       </c>
       <c r="T25">
-        <v>0.005138847925065484</v>
+        <v>0.003957603561505863</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3761508408746</v>
+        <v>20.2357845</v>
       </c>
       <c r="N26">
-        <v>13.3761508408746</v>
+        <v>40.471569</v>
       </c>
       <c r="O26">
-        <v>0.5806202162583551</v>
+        <v>0.6541684461278472</v>
       </c>
       <c r="P26">
-        <v>0.5806202162583551</v>
+        <v>0.5577284055609554</v>
       </c>
       <c r="Q26">
-        <v>569.2432864670189</v>
+        <v>861.4218657898575</v>
       </c>
       <c r="R26">
-        <v>569.2432864670189</v>
+        <v>3445.68746315943</v>
       </c>
       <c r="S26">
-        <v>0.05632256741398145</v>
+        <v>0.06098760712194074</v>
       </c>
       <c r="T26">
-        <v>0.05632256741398145</v>
+        <v>0.03577618059499275</v>
       </c>
     </row>
   </sheetData>
